--- a/data/turm/MEC-2NB.xlsx
+++ b/data/turm/MEC-2NB.xlsx
@@ -985,27 +985,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Guilherme-C. L. P.-2NB, Guilherme-C. L. P.-2NB, Guilherme-C. L. P.-2NB, Guilherme-C. L. P.-2NB]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Suzanny-Des. Maq. CAD-</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Aderci-Fresagem-2NB, Aderci-Fresagem-2NB, Aderci-Fresagem-2NB, Aderci-Fresagem-2NB]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Ismail-Metrologia 2-2NB, Ismail-Metrologia 2-2NB, Ismail-Metrologia 2-2NB, Ismail-Metrologia 2-2NB]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Claudinei-Elemaq.-</t>
         </is>
       </c>
     </row>
@@ -1017,27 +1017,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Leandro-M.S.R.A.C.-2NB, Leandro-M.S.R.A.C.-2NB, Leandro-M.S.R.A.C.-2NB, Leandro-M.S.R.A.C.-2NB]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Suzanny-Des. Maq. CAD-</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Guilherme-Coman. Hidraulicos-2NB, Guilherme-Coman. Hidraulicos-2NB, Guilherme-Coman. Hidraulicos-2NB, Guilherme-Coman. Hidraulicos-2NB]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Claudinei-Elemaq.-</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Leandro-M. Maq. E. I.-2NB, Leandro-M. Maq. E. I.-2NB, Leandro-M. Maq. E. I.-2NB, Leandro-M. Maq. E. I.-2NB]</t>
         </is>
       </c>
     </row>
@@ -1049,27 +1049,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Victor S.-Usin. CNC-2NB, Victor S.-Usin. CNC-2NB, Victor S.-Usin. CNC-2NB, Victor S.-Usin. CNC-2NB]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Paulo Rob.-CAD / CAM-2NB, Paulo Rob.-CAD / CAM-2NB, Paulo Rob.-CAD / CAM-2NB, Paulo Rob.-CAD / CAM-2NB]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Rogério-Retífica-2NB, Rogério-Retífica-2NB, Rogério-Retífica-2NB, Rogério-Retífica-2NB]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Euclides-Gest. Int.-</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Suzanny-Des. Maq. CAD-</t>
         </is>
       </c>
     </row>
@@ -1086,22 +1086,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Elcio D.-C. Pneumática-2NB, Elcio D.-C. Pneumática-2NB, Elcio D.-C. Pneumática-2NB, Elcio D.-C. Pneumática-2NB]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Joel L.-Fundição-2NB, Joel L.-Fundição-2NB, Joel L.-Fundição-2NB, Joel L.-Fundição-2NB]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Euclides-Gest. Int.-</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Cláudio-Soldagem-2NB, Cláudio-Soldagem-2NB, Cláudio-Soldagem-2NB, Cláudio-Soldagem-2NB]</t>
         </is>
       </c>
     </row>

--- a/data/turm/MEC-2NB.xlsx
+++ b/data/turm/MEC-2NB.xlsx
@@ -473,12 +473,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Cláudio-Soldagem-2NB, -, -, -]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Cláudio-Soldagem-2NB, -, -, -]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -488,7 +488,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Euclides-Gestão integrada-</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Cláudio-Soldagem-2NB, -, -, -]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,17 +515,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Cláudio-Soldagem-2NB, -, -, -]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Euclides-Gestão integrada-</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Euclides-Gestão integrada-</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Euclides-Gestão integrada-</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +552,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Euclides-Gestão integrada-</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Euclides-Gestão integrada-</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Euclides-Gestão integrada-</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -648,12 +648,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Cláudio-Soldagem-2NB, -, -, -]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Cláudio-Soldagem-2NB, -, -, -]</t>
         </is>
       </c>
     </row>
@@ -670,7 +670,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Euclides-Gestão integrada-</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -685,7 +685,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Euclides-Gestão integrada-</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Euclides-Gestão integrada-</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Cláudio-Soldagem-2NB, -, -, -]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Euclides-Gestão integrada-</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Euclides-Gestão integrada-</t>
         </is>
       </c>
     </row>
@@ -798,12 +798,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Cláudio-Soldagem-2NB, Rogério-Retífica-2NB, -, -]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Euclides-Gestão integrada-</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -877,7 +877,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Euclides-Gestão integrada-</t>
         </is>
       </c>
     </row>
@@ -894,12 +894,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Euclides-Gestão integrada-</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Euclides-Gestão integrada-</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Euclides-Gestão integrada-</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Cláudio-Soldagem-2NB, -, -, Leandro-M. Maq. E. I.-2NB]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -985,27 +985,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[Guilherme-C. L. P.-2NB, Guilherme-C. L. P.-2NB, Guilherme-C. L. P.-2NB, Guilherme-C. L. P.-2NB]</t>
+          <t>[Guilherme-Coman. Hidraulicos-2NB, Aderci-Fresagem-2NB, Guilherme-C. L. P.-2NB, Rogério-Retífica-2NB]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Suzanny-Des. Maq. CAD-</t>
+          <t>[Paulo Rob.-CAD/CAM-2NB, Cláudio-Soldagem-2NB, Ismail-Metrologia 2-2NB, Leandro-M.S.R.A.C.-2NB]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[Aderci-Fresagem-2NB, Aderci-Fresagem-2NB, Aderci-Fresagem-2NB, Aderci-Fresagem-2NB]</t>
+          <t>Euclides-Gestão integrada-</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[Ismail-Metrologia 2-2NB, Ismail-Metrologia 2-2NB, Ismail-Metrologia 2-2NB, Ismail-Metrologia 2-2NB]</t>
+          <t>[Leandro-M.S.R.A.C.-2NB, Ismail-Metrologia 2-2NB, Paulo Rob.-CAD/CAM-2NB, Cláudio-Soldagem-2NB]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Claudinei-Elemaq.-</t>
+          <t>[Victor-Usin. CNC-2NB, Joel L.-Fundição-2NB, -, Leandro-M. Maq. E. I.-2NB]</t>
         </is>
       </c>
     </row>
@@ -1017,27 +1017,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[Leandro-M.S.R.A.C.-2NB, Leandro-M.S.R.A.C.-2NB, Leandro-M.S.R.A.C.-2NB, Leandro-M.S.R.A.C.-2NB]</t>
+          <t>[Guilherme-Coman. Hidraulicos-2NB, Aderci-Fresagem-2NB, Guilherme-C. L. P.-2NB, Elcio Dec.-C.pneumática-2NB]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Suzanny-Des. Maq. CAD-</t>
+          <t>[Paulo Rob.-CAD/CAM-2NB, Cláudio-Soldagem-2NB, Ismail-Metrologia 2-2NB, Leandro-M.S.R.A.C.-2NB]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[Guilherme-Coman. Hidraulicos-2NB, Guilherme-Coman. Hidraulicos-2NB, Guilherme-Coman. Hidraulicos-2NB, Guilherme-Coman. Hidraulicos-2NB]</t>
+          <t>[Joel L.-Fundição-2NB, Victor-Usin. CNC-2NB, Leandro-M. Maq. E. I.-2NB, -]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Claudinei-Elemaq.-</t>
+          <t>[Leandro-M.S.R.A.C.-2NB, Ismail-Metrologia 2-2NB, Paulo Rob.-CAD/CAM-2NB, Elcio Dec.-C.pneumática-2NB]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[Leandro-M. Maq. E. I.-2NB, Leandro-M. Maq. E. I.-2NB, Leandro-M. Maq. E. I.-2NB, Leandro-M. Maq. E. I.-2NB]</t>
+          <t>Suzanny-Des. Maq. Cad-</t>
         </is>
       </c>
     </row>
@@ -1049,27 +1049,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[Victor S.-Usin. CNC-2NB, Victor S.-Usin. CNC-2NB, Victor S.-Usin. CNC-2NB, Victor S.-Usin. CNC-2NB]</t>
+          <t>[Guilherme-Coman. Hidraulicos-2NB, Aderci-Fresagem-2NB, Guilherme-C. L. P.-2NB, Rogério-Retífica-2NB]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[Paulo Rob.-CAD / CAM-2NB, Paulo Rob.-CAD / CAM-2NB, Paulo Rob.-CAD / CAM-2NB, Paulo Rob.-CAD / CAM-2NB]</t>
+          <t>Euclides-Gestão integrada-</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[Rogério-Retífica-2NB, Rogério-Retífica-2NB, Rogério-Retífica-2NB, Rogério-Retífica-2NB]</t>
+          <t>[Joel L.-Fundição-2NB, Victor-Usin. CNC-2NB, -, Elcio Dec.-C.pneumática-2NB]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Euclides-Gest. Int.-</t>
+          <t>Euclides-Gestão integrada-</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Suzanny-Des. Maq. CAD-</t>
+          <t>Suzanny-Des. Maq. Cad-</t>
         </is>
       </c>
     </row>
@@ -1081,27 +1081,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Guilherme-Coman. Hidraulicos-2NB, Aderci-Fresagem-2NB, Guilherme-C. L. P.-2NB, Rogério-Retífica-2NB]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[Elcio D.-C. Pneumática-2NB, Elcio D.-C. Pneumática-2NB, Elcio D.-C. Pneumática-2NB, Elcio D.-C. Pneumática-2NB]</t>
+          <t>Euclides-Gestão integrada-</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[Joel L.-Fundição-2NB, Joel L.-Fundição-2NB, Joel L.-Fundição-2NB, Joel L.-Fundição-2NB]</t>
+          <t>[Joel L.-Fundição-2NB, Victor-Usin. CNC-2NB, Leandro-M. Maq. E. I.-2NB, Elcio Dec.-C.pneumática-2NB]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Euclides-Gest. Int.-</t>
+          <t>Claudinei-Elemaq.-</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[Cláudio-Soldagem-2NB, Cláudio-Soldagem-2NB, Cláudio-Soldagem-2NB, Cláudio-Soldagem-2NB]</t>
+          <t>Suzanny-Des. Maq. Cad-</t>
         </is>
       </c>
     </row>

--- a/data/turm/MEC-2NB.xlsx
+++ b/data/turm/MEC-2NB.xlsx
@@ -473,12 +473,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[Cláudio-Soldagem-2NB, -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[Cláudio-Soldagem-2NB, -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -488,12 +488,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Euclides-Gestão integrada-</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Rogério-Retífica-2NB, -, -, -]</t>
         </is>
       </c>
     </row>
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[Cláudio-Soldagem-2NB, -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,17 +515,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[Cláudio-Soldagem-2NB, -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Euclides-Gestão integrada-</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Euclides-Gestão integrada-</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Euclides-Gestão integrada-</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +552,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Euclides-Gestão integrada-</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Rogério-Retífica-2NB, -, -, -]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Euclides-Gestão integrada-</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Euclides-Gestão integrada-</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -648,12 +648,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[Cláudio-Soldagem-2NB, -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[Cláudio-Soldagem-2NB, -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -670,12 +670,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Euclides-Gestão integrada-</t>
+          <t>[Rogério-Retífica-2NB, -, -, -]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Rogério-Retífica-2NB, -, -, -]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -685,7 +685,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Euclides-Gestão integrada-</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Euclides-Gestão integrada-</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -739,12 +739,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Rogério-Retífica-2NB, -, -, -]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[Cláudio-Soldagem-2NB, -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Euclides-Gestão integrada-</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Euclides-Gestão integrada-</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -798,12 +798,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[Cláudio-Soldagem-2NB, Rogério-Retífica-2NB, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Euclides-Gestão integrada-</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -877,7 +877,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Euclides-Gestão integrada-</t>
+          <t>[Rogério-Retífica-2NB, -, -, -]</t>
         </is>
       </c>
     </row>
@@ -894,12 +894,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Euclides-Gestão integrada-</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Euclides-Gestão integrada-</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Euclides-Gestão integrada-</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[Cláudio-Soldagem-2NB, -, -, Leandro-M. Maq. E. I.-2NB]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -985,27 +985,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[Guilherme-Coman. Hidraulicos-2NB, Aderci-Fresagem-2NB, Guilherme-C. L. P.-2NB, Rogério-Retífica-2NB]</t>
+          <t>Suzanny-Des. Maq. Cad-</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[Paulo Rob.-CAD/CAM-2NB, Cláudio-Soldagem-2NB, Ismail-Metrologia 2-2NB, Leandro-M.S.R.A.C.-2NB]</t>
+          <t>[Joel L.-Fundição-2NB, Elcio Dec.-C.pneumática-2NB, Ismail-Metrologia 2-2NB, Cláudio-Soldagem-2NB]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Euclides-Gestão integrada-</t>
+          <t>[Ismail-Metrologia 2-2NB, Paulo Rob.-CAD/CAM-2NB, Leandro-M.S.R.A.C.-2NB, Victor-Usin. CNC-2NB]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[Leandro-M.S.R.A.C.-2NB, Ismail-Metrologia 2-2NB, Paulo Rob.-CAD/CAM-2NB, Cláudio-Soldagem-2NB]</t>
+          <t>[Leandro-M.S.R.A.C.-2NB, Victor-Usin. CNC-2NB, Leandro-M. Maq. E. I.-2NB, Paulo Rob.-CAD/CAM-2NB]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[Victor-Usin. CNC-2NB, Joel L.-Fundição-2NB, -, Leandro-M. Maq. E. I.-2NB]</t>
+          <t>[Rogério-Retífica-2NB, Guilherme-C. L. P.-2NB, Aderci-Fresagem-2NB, Guilherme-Coman. Hidraulicos-2NB]</t>
         </is>
       </c>
     </row>
@@ -1017,27 +1017,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[Guilherme-Coman. Hidraulicos-2NB, Aderci-Fresagem-2NB, Guilherme-C. L. P.-2NB, Elcio Dec.-C.pneumática-2NB]</t>
+          <t>Suzanny-Des. Maq. Cad-</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[Paulo Rob.-CAD/CAM-2NB, Cláudio-Soldagem-2NB, Ismail-Metrologia 2-2NB, Leandro-M.S.R.A.C.-2NB]</t>
+          <t>[Rogério-Retífica-2NB, Elcio Dec.-C.pneumática-2NB, Ismail-Metrologia 2-2NB, Cláudio-Soldagem-2NB]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[Joel L.-Fundição-2NB, Victor-Usin. CNC-2NB, Leandro-M. Maq. E. I.-2NB, -]</t>
+          <t>[Leandro-M. Maq. E. I.-2NB, Paulo Rob.-CAD/CAM-2NB, Leandro-M.S.R.A.C.-2NB, Victor-Usin. CNC-2NB]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[Leandro-M.S.R.A.C.-2NB, Ismail-Metrologia 2-2NB, Paulo Rob.-CAD/CAM-2NB, Elcio Dec.-C.pneumática-2NB]</t>
+          <t>Claudinei-Elemaq.-</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Suzanny-Des. Maq. Cad-</t>
+          <t>[Rogério-Retífica-2NB, Guilherme-C. L. P.-2NB, Aderci-Fresagem-2NB, Guilherme-Coman. Hidraulicos-2NB]</t>
         </is>
       </c>
     </row>
@@ -1049,27 +1049,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[Guilherme-Coman. Hidraulicos-2NB, Aderci-Fresagem-2NB, Guilherme-C. L. P.-2NB, Rogério-Retífica-2NB]</t>
+          <t>Suzanny-Des. Maq. Cad-</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Euclides-Gestão integrada-</t>
+          <t>[Joel L.-Fundição-2NB, Elcio Dec.-C.pneumática-2NB, Ismail-Metrologia 2-2NB, Cláudio-Soldagem-2NB]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[Joel L.-Fundição-2NB, Victor-Usin. CNC-2NB, -, Elcio Dec.-C.pneumática-2NB]</t>
+          <t>[Leandro-M. Maq. E. I.-2NB, Paulo Rob.-CAD/CAM-2NB, Leandro-M.S.R.A.C.-2NB, Victor-Usin. CNC-2NB]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Euclides-Gestão integrada-</t>
+          <t>Claudinei-Elemaq.-</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Suzanny-Des. Maq. Cad-</t>
+          <t>[Joel L.-Fundição-2NB, Guilherme-C. L. P.-2NB, Aderci-Fresagem-2NB, Guilherme-Coman. Hidraulicos-2NB]</t>
         </is>
       </c>
     </row>
@@ -1081,27 +1081,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[Guilherme-Coman. Hidraulicos-2NB, Aderci-Fresagem-2NB, Guilherme-C. L. P.-2NB, Rogério-Retífica-2NB]</t>
+          <t>Euclides-Gestão integrada-</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>[Joel L.-Fundição-2NB, Elcio Dec.-C.pneumática-2NB, Leandro-M. Maq. E. I.-2NB, Cláudio-Soldagem-2NB]</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>Euclides-Gestão integrada-</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>[Joel L.-Fundição-2NB, Victor-Usin. CNC-2NB, Leandro-M. Maq. E. I.-2NB, Elcio Dec.-C.pneumática-2NB]</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Claudinei-Elemaq.-</t>
-        </is>
-      </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Suzanny-Des. Maq. Cad-</t>
+          <t>[Rogério-Retífica-2NB, Guilherme-C. L. P.-2NB, Aderci-Fresagem-2NB, Guilherme-Coman. Hidraulicos-2NB]</t>
         </is>
       </c>
     </row>

--- a/data/turm/MEC-2NB.xlsx
+++ b/data/turm/MEC-2NB.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -493,7 +493,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[Rogério-Retífica-2NB, -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -601,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[Rogério-Retífica-2NB, -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -670,12 +670,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[Rogério-Retífica-2NB, -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[Rogério-Retífica-2NB, -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[Rogério-Retífica-2NB, -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -877,7 +877,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[Rogério-Retífica-2NB, -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -985,27 +985,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Suzanny-Des. Maq. Cad-</t>
+          <t>[Leandro-M. Maq. E. I., Paulo Rob.-CAD/CAM, Leandro-M.S.R.A.C., Joel L.-Fundição]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[Joel L.-Fundição-2NB, Elcio Dec.-C.pneumática-2NB, Ismail-Metrologia 2-2NB, Cláudio-Soldagem-2NB]</t>
+          <t>[Ismail-Metrologia 2, Rogério-Retífica, Elcio Dec.-C.pneumática, Aderci-Fresagem]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[Ismail-Metrologia 2-2NB, Paulo Rob.-CAD/CAM-2NB, Leandro-M.S.R.A.C.-2NB, Victor-Usin. CNC-2NB]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[Leandro-M.S.R.A.C.-2NB, Victor-Usin. CNC-2NB, Leandro-M. Maq. E. I.-2NB, Paulo Rob.-CAD/CAM-2NB]</t>
+          <t>Claudinei-Elem</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[Rogério-Retífica-2NB, Guilherme-C. L. P.-2NB, Aderci-Fresagem-2NB, Guilherme-Coman. Hidraulicos-2NB]</t>
+          <t>[Guilherme-Coman. Hidraulicos, Victor-Usin. CNC, Cláudio-Soldagem, Guilherme-C. L. P.]</t>
         </is>
       </c>
     </row>
@@ -1017,27 +1017,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Suzanny-Des. Maq. Cad-</t>
+          <t>[Leandro-M. Maq. E. I., Paulo Rob.-CAD/CAM, Leandro-M.S.R.A.C., Joel L.-Fundição]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[Rogério-Retífica-2NB, Elcio Dec.-C.pneumática-2NB, Ismail-Metrologia 2-2NB, Cláudio-Soldagem-2NB]</t>
+          <t>[Ismail-Metrologia 2, Rogério-Retífica, Elcio Dec.-C.pneumática, Aderci-Fresagem]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[Leandro-M. Maq. E. I.-2NB, Paulo Rob.-CAD/CAM-2NB, Leandro-M.S.R.A.C.-2NB, Victor-Usin. CNC-2NB]</t>
+          <t xml:space="preserve">Suzanny-Des. Maq. </t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Claudinei-Elemaq.-</t>
+          <t xml:space="preserve">Suzanny-Des. Maq. </t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[Rogério-Retífica-2NB, Guilherme-C. L. P.-2NB, Aderci-Fresagem-2NB, Guilherme-Coman. Hidraulicos-2NB]</t>
+          <t>[Guilherme-Coman. Hidraulicos, Victor-Usin. CNC, Cláudio-Soldagem, Guilherme-C. L. P.]</t>
         </is>
       </c>
     </row>
@@ -1049,27 +1049,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Suzanny-Des. Maq. Cad-</t>
+          <t>[Leandro-M. Maq. E. I., Paulo Rob.-CAD/CAM, Leandro-M.S.R.A.C., Joel L.-Fundição]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[Joel L.-Fundição-2NB, Elcio Dec.-C.pneumática-2NB, Ismail-Metrologia 2-2NB, Cláudio-Soldagem-2NB]</t>
+          <t>[Ismail-Metrologia 2, Rogério-Retífica, Elcio Dec.-C.pneumática, Aderci-Fresagem]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[Leandro-M. Maq. E. I.-2NB, Paulo Rob.-CAD/CAM-2NB, Leandro-M.S.R.A.C.-2NB, Victor-Usin. CNC-2NB]</t>
+          <t>Claudinei-Elem</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Claudinei-Elemaq.-</t>
+          <t>Euclides-Gestão integr</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[Joel L.-Fundição-2NB, Guilherme-C. L. P.-2NB, Aderci-Fresagem-2NB, Guilherme-Coman. Hidraulicos-2NB]</t>
+          <t>[Guilherme-Coman. Hidraulicos, Victor-Usin. CNC, Cláudio-Soldagem, Guilherme-C. L. P.]</t>
         </is>
       </c>
     </row>
@@ -1081,31 +1081,31 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Euclides-Gestão integrada-</t>
+          <t>[Leandro-M. Maq. E. I., Paulo Rob.-CAD/CAM, Leandro-M.S.R.A.C., Joel L.-Fundição]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[Joel L.-Fundição-2NB, Elcio Dec.-C.pneumática-2NB, Leandro-M. Maq. E. I.-2NB, Cláudio-Soldagem-2NB]</t>
+          <t>[Ismail-Metrologia 2, Rogério-Retífica, Elcio Dec.-C.pneumática, Aderci-Fresagem]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Euclides-Gestão integr</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Euclides-Gestão integrada-</t>
+          <t xml:space="preserve">Suzanny-Des. Maq. </t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[Rogério-Retífica-2NB, Guilherme-C. L. P.-2NB, Aderci-Fresagem-2NB, Guilherme-Coman. Hidraulicos-2NB]</t>
+          <t>[Guilherme-Coman. Hidraulicos, Victor-Usin. CNC, Cláudio-Soldagem, Guilherme-C. L. P.]</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/turm/MEC-2NB.xlsx
+++ b/data/turm/MEC-2NB.xlsx
@@ -985,27 +985,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[Leandro-M. Maq. E. I., Paulo Rob.-CAD/CAM, Leandro-M.S.R.A.C., Joel L.-Fundição]</t>
+          <t>[Leandro-M. Maq. E. I., Leandro-M.S.R.A.C., Guilherme-Coman. Hidraulicos, Victor-Usin. CNC]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[Ismail-Metrologia 2, Rogério-Retífica, Elcio Dec.-C.pneumática, Aderci-Fresagem]</t>
+          <t>[Cláudio-Soldagem, Ismail-Metrologia 2, Leandro-M.S.R.A.C., Guilherme-C. L. P.]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t xml:space="preserve">Suzanny-Des. Maq. </t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
+          <t>[Paulo Rob.-CAD/CAM, Guilherme-C. L. P., Guilherme-Coman. Hidraulicos, Aderci-Fresagem]</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>Claudinei-Elem</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>[Guilherme-Coman. Hidraulicos, Victor-Usin. CNC, Cláudio-Soldagem, Guilherme-C. L. P.]</t>
         </is>
       </c>
     </row>
@@ -1017,12 +1017,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[Leandro-M. Maq. E. I., Paulo Rob.-CAD/CAM, Leandro-M.S.R.A.C., Joel L.-Fundição]</t>
+          <t>[Leandro-M. Maq. E. I., Leandro-M.S.R.A.C., Joel L.-Fundição, Victor-Usin. CNC]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[Ismail-Metrologia 2, Rogério-Retífica, Elcio Dec.-C.pneumática, Aderci-Fresagem]</t>
+          <t>[Cláudio-Soldagem, Ismail-Metrologia 2, Leandro-M. Maq. E. I., Rogério-Retífica]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1032,12 +1032,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Suzanny-Des. Maq. </t>
+          <t>[Paulo Rob.-CAD/CAM, Guilherme-C. L. P., Guilherme-Coman. Hidraulicos, Aderci-Fresagem]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[Guilherme-Coman. Hidraulicos, Victor-Usin. CNC, Cláudio-Soldagem, Guilherme-C. L. P.]</t>
+          <t>Claudinei-Elem</t>
         </is>
       </c>
     </row>
@@ -1049,27 +1049,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[Leandro-M. Maq. E. I., Paulo Rob.-CAD/CAM, Leandro-M.S.R.A.C., Joel L.-Fundição]</t>
+          <t>[Leandro-M. Maq. E. I., Leandro-M.S.R.A.C., Joel L.-Fundição, Elcio Dec.-C.pneumática]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[Ismail-Metrologia 2, Rogério-Retífica, Elcio Dec.-C.pneumática, Aderci-Fresagem]</t>
+          <t>[Cláudio-Soldagem, Ismail-Metrologia 2, Elcio Dec.-C.pneumática, Rogério-Retífica]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Claudinei-Elem</t>
+          <t xml:space="preserve">Suzanny-Des. Maq. </t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
+          <t>[Paulo Rob.-CAD/CAM, Ismail-Metrologia 2, Cláudio-Soldagem, Aderci-Fresagem]</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>Euclides-Gestão integr</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>[Guilherme-Coman. Hidraulicos, Victor-Usin. CNC, Cláudio-Soldagem, Guilherme-C. L. P.]</t>
         </is>
       </c>
     </row>
@@ -1081,27 +1081,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[Leandro-M. Maq. E. I., Paulo Rob.-CAD/CAM, Leandro-M.S.R.A.C., Joel L.-Fundição]</t>
+          <t>[Elcio Dec.-C.pneumática, Rogério-Retífica, Joel L.-Fundição, Victor-Usin. CNC]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[Ismail-Metrologia 2, Rogério-Retífica, Elcio Dec.-C.pneumática, Aderci-Fresagem]</t>
+          <t>[-, Joel L.-Fundição, Elcio Dec.-C.pneumática, Rogério-Retífica]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>[-, -, Victor-Usin. CNC, -]</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>[Guilherme-C. L. P., Paulo Rob.-CAD/CAM, Guilherme-Coman. Hidraulicos, Aderci-Fresagem]</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>Euclides-Gestão integr</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Suzanny-Des. Maq. </t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>[Guilherme-Coman. Hidraulicos, Victor-Usin. CNC, Cláudio-Soldagem, Guilherme-C. L. P.]</t>
         </is>
       </c>
     </row>

--- a/data/turm/MEC-2NB.xlsx
+++ b/data/turm/MEC-2NB.xlsx
@@ -985,22 +985,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[Leandro-M. Maq. E. I., Leandro-M.S.R.A.C., Guilherme-Coman. Hidraulicos, Victor-Usin. CNC]</t>
+          <t>[Leandro-M. Maq. E. I., -, Leandro-M.S.R.A.C., -]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[Cláudio-Soldagem, Ismail-Metrologia 2, Leandro-M.S.R.A.C., Guilherme-C. L. P.]</t>
+          <t xml:space="preserve">Suzanny-Des. Maq. </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Suzanny-Des. Maq. </t>
+          <t>[Guilherme-Coman. Hidraulicos, Guilherme-C. L. P., Ismail-Metrologia 2, Elcio Dec.-C.pneumática]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[Paulo Rob.-CAD/CAM, Guilherme-C. L. P., Guilherme-Coman. Hidraulicos, Aderci-Fresagem]</t>
+          <t>[Paulo Rob.-CAD/CAM, Rogério-Retífica, Guilherme-Coman. Hidraulicos, Aderci-Fresagem]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1017,22 +1017,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[Leandro-M. Maq. E. I., Leandro-M.S.R.A.C., Joel L.-Fundição, Victor-Usin. CNC]</t>
+          <t>[Leandro-M. Maq. E. I., -, Leandro-M.S.R.A.C., Victor-Usin. CNC]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[Cláudio-Soldagem, Ismail-Metrologia 2, Leandro-M. Maq. E. I., Rogério-Retífica]</t>
+          <t xml:space="preserve">Suzanny-Des. Maq. </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Suzanny-Des. Maq. </t>
+          <t>[Guilherme-Coman. Hidraulicos, Guilherme-C. L. P., Ismail-Metrologia 2, Elcio Dec.-C.pneumática]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[Paulo Rob.-CAD/CAM, Guilherme-C. L. P., Guilherme-Coman. Hidraulicos, Aderci-Fresagem]</t>
+          <t>[Paulo Rob.-CAD/CAM, Rogério-Retífica, Ismail-Metrologia 2, Aderci-Fresagem]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1049,22 +1049,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[Leandro-M. Maq. E. I., Leandro-M.S.R.A.C., Joel L.-Fundição, Elcio Dec.-C.pneumática]</t>
+          <t>[Leandro-M. Maq. E. I., Cláudio-Soldagem, Victor-Usin. CNC, Joel L.-Fundição]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[Cláudio-Soldagem, Ismail-Metrologia 2, Elcio Dec.-C.pneumática, Rogério-Retífica]</t>
+          <t xml:space="preserve">Suzanny-Des. Maq. </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Suzanny-Des. Maq. </t>
+          <t>[Guilherme-Coman. Hidraulicos, Guilherme-C. L. P., Cláudio-Soldagem, Elcio Dec.-C.pneumática]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[Paulo Rob.-CAD/CAM, Ismail-Metrologia 2, Cláudio-Soldagem, Aderci-Fresagem]</t>
+          <t>[Paulo Rob.-CAD/CAM, Rogério-Retífica, Ismail-Metrologia 2, Aderci-Fresagem]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1081,22 +1081,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[Elcio Dec.-C.pneumática, Rogério-Retífica, Joel L.-Fundição, Victor-Usin. CNC]</t>
+          <t>[Leandro-M.S.R.A.C., Cláudio-Soldagem, Leandro-M. Maq. E. I., Joel L.-Fundição]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[-, Joel L.-Fundição, Elcio Dec.-C.pneumática, Rogério-Retífica]</t>
+          <t>[-, Joel L.-Fundição, Victor-Usin. CNC, Leandro-M.S.R.A.C.]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[-, -, Victor-Usin. CNC, -]</t>
+          <t>[Victor-Usin. CNC, Cláudio-Soldagem, Joel L.-Fundição, Elcio Dec.-C.pneumática]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[Guilherme-C. L. P., Paulo Rob.-CAD/CAM, Guilherme-Coman. Hidraulicos, Aderci-Fresagem]</t>
+          <t>[Paulo Rob.-CAD/CAM, Rogério-Retífica, Guilherme-C. L. P., Aderci-Fresagem]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">

--- a/data/turm/MEC-2NB.xlsx
+++ b/data/turm/MEC-2NB.xlsx
@@ -985,27 +985,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[Leandro-M. Maq. E. I., -, Leandro-M.S.R.A.C., -]</t>
+          <t>[Leandro-M.S.R.A.C., Joel L.-Fundição, Leandro-M. Maq. E. I., Rogério-Retífica]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>[Cláudio-Soldagem, Ismail-Metrologia 2, Guilherme-Coman. Hidraulicos, Guilherme-C. L. P.]</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t xml:space="preserve">Suzanny-Des. Maq. </t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>[Guilherme-Coman. Hidraulicos, Guilherme-C. L. P., Ismail-Metrologia 2, Elcio Dec.-C.pneumática]</t>
-        </is>
-      </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[Paulo Rob.-CAD/CAM, Rogério-Retífica, Guilherme-Coman. Hidraulicos, Aderci-Fresagem]</t>
+          <t>Euclides-Gestão integr</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Claudinei-Elem</t>
+          <t>[Victor-Usin. CNC, Elcio Dec.-C.pneumática, Paulo Rob.-CAD/CAM, Cláudio-Soldagem]</t>
         </is>
       </c>
     </row>
@@ -1017,27 +1017,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[Leandro-M. Maq. E. I., -, Leandro-M.S.R.A.C., Victor-Usin. CNC]</t>
+          <t>[Leandro-M.S.R.A.C., Joel L.-Fundição, Leandro-M. Maq. E. I., Aderci-Fresagem]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>[Ismail-Metrologia 2, Aderci-Fresagem, Rogério-Retífica, Guilherme-C. L. P.]</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t xml:space="preserve">Suzanny-Des. Maq. </t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>[Guilherme-Coman. Hidraulicos, Guilherme-C. L. P., Ismail-Metrologia 2, Elcio Dec.-C.pneumática]</t>
-        </is>
-      </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[Paulo Rob.-CAD/CAM, Rogério-Retífica, Ismail-Metrologia 2, Aderci-Fresagem]</t>
+          <t>Euclides-Gestão integr</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Claudinei-Elem</t>
+          <t>[Paulo Rob.-CAD/CAM, Elcio Dec.-C.pneumática, Ismail-Metrologia 2, Cláudio-Soldagem]</t>
         </is>
       </c>
     </row>
@@ -1049,27 +1049,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[Leandro-M. Maq. E. I., Cláudio-Soldagem, Victor-Usin. CNC, Joel L.-Fundição]</t>
+          <t>[Leandro-M.S.R.A.C., Joel L.-Fundição, Leandro-M. Maq. E. I., Guilherme-Coman. Hidraulicos]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>[Guilherme-Coman. Hidraulicos, Aderci-Fresagem, Rogério-Retífica, Guilherme-C. L. P.]</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t xml:space="preserve">Suzanny-Des. Maq. </t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>[Guilherme-Coman. Hidraulicos, Guilherme-C. L. P., Cláudio-Soldagem, Elcio Dec.-C.pneumática]</t>
-        </is>
-      </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[Paulo Rob.-CAD/CAM, Rogério-Retífica, Ismail-Metrologia 2, Aderci-Fresagem]</t>
+          <t>[Victor-Usin. CNC, -, -, -]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Euclides-Gestão integr</t>
+          <t>[Paulo Rob.-CAD/CAM, Elcio Dec.-C.pneumática, Victor-Usin. CNC, Cláudio-Soldagem]</t>
         </is>
       </c>
     </row>
@@ -1081,27 +1081,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[Leandro-M.S.R.A.C., Cláudio-Soldagem, Leandro-M. Maq. E. I., Joel L.-Fundição]</t>
+          <t>[Leandro-M.S.R.A.C., Joel L.-Fundição, Leandro-M. Maq. E. I., Ismail-Metrologia 2]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[-, Joel L.-Fundição, Victor-Usin. CNC, Leandro-M.S.R.A.C.]</t>
+          <t>[Guilherme-Coman. Hidraulicos, Aderci-Fresagem, Rogério-Retífica, Guilherme-C. L. P.]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[Victor-Usin. CNC, Cláudio-Soldagem, Joel L.-Fundição, Elcio Dec.-C.pneumática]</t>
+          <t>Claudinei-Elem</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[Paulo Rob.-CAD/CAM, Rogério-Retífica, Guilherme-C. L. P., Aderci-Fresagem]</t>
+          <t>Claudinei-Elem</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Euclides-Gestão integr</t>
+          <t>[Paulo Rob.-CAD/CAM, Elcio Dec.-C.pneumática, -, Victor-Usin. CNC]</t>
         </is>
       </c>
     </row>

--- a/data/turm/MEC-2NB.xlsx
+++ b/data/turm/MEC-2NB.xlsx
@@ -985,27 +985,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[Leandro-M.S.R.A.C., Joel L.-Fundição, Leandro-M. Maq. E. I., Rogério-Retífica]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[Cláudio-Soldagem, Ismail-Metrologia 2, Guilherme-Coman. Hidraulicos, Guilherme-C. L. P.]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Suzanny-Des. Maq. </t>
+          <t>-</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Euclides-Gestão integr</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[Victor-Usin. CNC, Elcio Dec.-C.pneumática, Paulo Rob.-CAD/CAM, Cláudio-Soldagem]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1017,27 +1017,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[Leandro-M.S.R.A.C., Joel L.-Fundição, Leandro-M. Maq. E. I., Aderci-Fresagem]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[Ismail-Metrologia 2, Aderci-Fresagem, Rogério-Retífica, Guilherme-C. L. P.]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Suzanny-Des. Maq. </t>
+          <t>-</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Euclides-Gestão integr</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[Paulo Rob.-CAD/CAM, Elcio Dec.-C.pneumática, Ismail-Metrologia 2, Cláudio-Soldagem]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1049,27 +1049,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[Leandro-M.S.R.A.C., Joel L.-Fundição, Leandro-M. Maq. E. I., Guilherme-Coman. Hidraulicos]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[Guilherme-Coman. Hidraulicos, Aderci-Fresagem, Rogério-Retífica, Guilherme-C. L. P.]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Suzanny-Des. Maq. </t>
+          <t>-</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[Victor-Usin. CNC, -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[Paulo Rob.-CAD/CAM, Elcio Dec.-C.pneumática, Victor-Usin. CNC, Cláudio-Soldagem]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1081,27 +1081,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[Leandro-M.S.R.A.C., Joel L.-Fundição, Leandro-M. Maq. E. I., Ismail-Metrologia 2]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[Guilherme-Coman. Hidraulicos, Aderci-Fresagem, Rogério-Retífica, Guilherme-C. L. P.]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Claudinei-Elem</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Claudinei-Elem</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[Paulo Rob.-CAD/CAM, Elcio Dec.-C.pneumática, -, Victor-Usin. CNC]</t>
+          <t>-</t>
         </is>
       </c>
     </row>

--- a/data/turm/MEC-2NB.xlsx
+++ b/data/turm/MEC-2NB.xlsx
@@ -985,27 +985,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Paulo Rob.-CAD/CAM, Leandro-M. Maq. E. I., Elcio Dec.-C.pneumática, -]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Victor-Usin. CNC, Leandro-M.S.R.A.C., Elcio Dec.-C.pneumática, Ismail-Metrologia 2]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Claudinei-Elem</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t xml:space="preserve">Suzanny-Des. Maq. </t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Euclides-Gestão integr</t>
         </is>
       </c>
     </row>
@@ -1017,27 +1017,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Paulo Rob.-CAD/CAM, -, Leandro-M.S.R.A.C., -]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Victor-Usin. CNC, Rogério-Retífica, Elcio Dec.-C.pneumática, Ismail-Metrologia 2]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Cláudio-Soldagem, Aderci-Fresagem, Leandro-M.S.R.A.C., Victor-Usin. CNC]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, Leandro-M.S.R.A.C., Cláudio-Soldagem]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Euclides-Gestão integr</t>
         </is>
       </c>
     </row>
@@ -1049,27 +1049,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Paulo Rob.-CAD/CAM, -, Rogério-Retífica, Leandro-M. Maq. E. I.]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, Joel L.-Fundição, Leandro-M. Maq. E. I., Ismail-Metrologia 2]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Victor-Usin. CNC, Aderci-Fresagem, Rogério-Retífica, Ismail-Metrologia 2]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Claudinei-Elem</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t xml:space="preserve">Suzanny-Des. Maq. </t>
         </is>
       </c>
     </row>
@@ -1081,17 +1081,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Paulo Rob.-CAD/CAM, Joel L.-Fundição, -, Leandro-M. Maq. E. I.]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Cláudio-Soldagem, Aderci-Fresagem, Elcio Dec.-C.pneumática, Joel L.-Fundição]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Joel L.-Fundição, Aderci-Fresagem, Rogério-Retífica, Cláudio-Soldagem]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t xml:space="preserve">Suzanny-Des. Maq. </t>
         </is>
       </c>
     </row>

--- a/data/turm/MEC-2NB.xlsx
+++ b/data/turm/MEC-2NB.xlsx
@@ -985,12 +985,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[Paulo Rob.-CAD/CAM, Leandro-M. Maq. E. I., Elcio Dec.-C.pneumática, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[Victor-Usin. CNC, Leandro-M.S.R.A.C., Elcio Dec.-C.pneumática, Ismail-Metrologia 2]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1000,12 +1000,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Suzanny-Des. Maq. </t>
+          <t>Suzanny-Des. Maq. C</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Euclides-Gestão integr</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1017,27 +1017,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[Paulo Rob.-CAD/CAM, -, Leandro-M.S.R.A.C., -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[Victor-Usin. CNC, Rogério-Retífica, Elcio Dec.-C.pneumática, Ismail-Metrologia 2]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[Cláudio-Soldagem, Aderci-Fresagem, Leandro-M.S.R.A.C., Victor-Usin. CNC]</t>
+          <t>Claudinei-Elem</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[-, -, Leandro-M.S.R.A.C., Cláudio-Soldagem]</t>
+          <t>Suzanny-Des. Maq. C</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Euclides-Gestão integr</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1049,27 +1049,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[Paulo Rob.-CAD/CAM, -, Rogério-Retífica, Leandro-M. Maq. E. I.]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[-, Joel L.-Fundição, Leandro-M. Maq. E. I., Ismail-Metrologia 2]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[Victor-Usin. CNC, Aderci-Fresagem, Rogério-Retífica, Ismail-Metrologia 2]</t>
+          <t>João Bosco-Gestão Integr</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Claudinei-Elem</t>
+          <t>Suzanny-Des. Maq. C</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Suzanny-Des. Maq. </t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1081,17 +1081,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[Paulo Rob.-CAD/CAM, Joel L.-Fundição, -, Leandro-M. Maq. E. I.]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[Cláudio-Soldagem, Aderci-Fresagem, Elcio Dec.-C.pneumática, Joel L.-Fundição]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[Joel L.-Fundição, Aderci-Fresagem, Rogério-Retífica, Cláudio-Soldagem]</t>
+          <t>João Bosco-Gestão Integr</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Suzanny-Des. Maq. </t>
+          <t>-</t>
         </is>
       </c>
     </row>

--- a/data/turm/MEC-2NB.xlsx
+++ b/data/turm/MEC-2NB.xlsx
@@ -995,12 +995,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Claudinei-Elem</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Suzanny-Des. Maq. C</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1027,12 +1027,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Claudinei-Elem</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Suzanny-Des. Maq. C</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1059,12 +1059,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>João Bosco-Gestão Integr</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Suzanny-Des. Maq. C</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>João Bosco-Gestão Integr</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
